--- a/artfynd/A 56894-2022.xlsx
+++ b/artfynd/A 56894-2022.xlsx
@@ -919,10 +919,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>105310242</v>
+        <v>105311364</v>
       </c>
       <c r="B4" t="n">
-        <v>96334</v>
+        <v>78503</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -931,25 +931,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>6456</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -959,10 +959,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>513019.9398603113</v>
+        <v>512854.1876451217</v>
       </c>
       <c r="R4" t="n">
-        <v>7128503.69582489</v>
+        <v>7128720.626146523</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1015,11 +1015,6 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Flera blommande exemplar</t>
-        </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
@@ -1041,10 +1036,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>105311367</v>
+        <v>105314846</v>
       </c>
       <c r="B5" t="n">
-        <v>78570</v>
+        <v>89392</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1057,34 +1052,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Långtjärnen, Jmt</t>
+          <t>Bäckmyrtjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>513094.1039140822</v>
+        <v>512630.3144845931</v>
       </c>
       <c r="R5" t="n">
-        <v>7128246.834694283</v>
+        <v>7128799.622523488</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1158,10 +1153,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>105311370</v>
+        <v>105310241</v>
       </c>
       <c r="B6" t="n">
-        <v>78603</v>
+        <v>96334</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1170,25 +1165,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6464</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1198,10 +1193,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>513014.487555024</v>
+        <v>512790.5225326184</v>
       </c>
       <c r="R6" t="n">
-        <v>7128455.888390962</v>
+        <v>7128760.757088812</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1275,10 +1270,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>105311364</v>
+        <v>105314845</v>
       </c>
       <c r="B7" t="n">
-        <v>78503</v>
+        <v>89742</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1287,25 +1282,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6456</v>
+        <v>1506</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1315,10 +1310,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>512854.1876451217</v>
+        <v>512627.2666092364</v>
       </c>
       <c r="R7" t="n">
-        <v>7128720.626146523</v>
+        <v>7128800.478737243</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1392,10 +1387,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>105311369</v>
+        <v>105311365</v>
       </c>
       <c r="B8" t="n">
-        <v>78569</v>
+        <v>78602</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1404,25 +1399,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1432,10 +1427,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>513013.1845397085</v>
+        <v>512855.9436202705</v>
       </c>
       <c r="R8" t="n">
-        <v>7128455.448477038</v>
+        <v>7128716.724151201</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1509,10 +1504,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>105314846</v>
+        <v>105310242</v>
       </c>
       <c r="B9" t="n">
-        <v>89392</v>
+        <v>96334</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1521,25 +1516,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1549,10 +1544,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>512630.3144845931</v>
+        <v>513019.9398603113</v>
       </c>
       <c r="R9" t="n">
-        <v>7128799.622523488</v>
+        <v>7128503.69582489</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1605,6 +1600,11 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Flera blommande exemplar</t>
+        </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
@@ -1626,10 +1626,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>105311366</v>
+        <v>105311367</v>
       </c>
       <c r="B10" t="n">
-        <v>78596</v>
+        <v>78570</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1638,25 +1638,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6462</v>
+        <v>2081</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>513091.9456367719</v>
+        <v>513094.1039140822</v>
       </c>
       <c r="R10" t="n">
-        <v>7128242.915587997</v>
+        <v>7128246.834694283</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1743,10 +1743,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>105310244</v>
+        <v>105311370</v>
       </c>
       <c r="B11" t="n">
-        <v>96334</v>
+        <v>78603</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1755,25 +1755,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>6464</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>513012.6983090897</v>
+        <v>513014.487555024</v>
       </c>
       <c r="R11" t="n">
-        <v>7128364.654042409</v>
+        <v>7128455.888390962</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>105310243</v>
+        <v>105311369</v>
       </c>
       <c r="B12" t="n">
-        <v>96334</v>
+        <v>78569</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1872,25 +1872,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>513032.9411713075</v>
+        <v>513013.1845397085</v>
       </c>
       <c r="R12" t="n">
-        <v>7128412.091036941</v>
+        <v>7128455.448477038</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1956,11 +1956,6 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Flera blommande exemplar</t>
-        </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
@@ -1982,10 +1977,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>105310241</v>
+        <v>105311366</v>
       </c>
       <c r="B13" t="n">
-        <v>96334</v>
+        <v>78596</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1994,38 +1989,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Bäckmyrtjärnen, Jmt</t>
+          <t>Långtjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>512790.5225326184</v>
+        <v>513091.9456367719</v>
       </c>
       <c r="R13" t="n">
-        <v>7128760.757088812</v>
+        <v>7128242.915587997</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2099,10 +2094,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>105314845</v>
+        <v>105310244</v>
       </c>
       <c r="B14" t="n">
-        <v>89742</v>
+        <v>96334</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2115,21 +2110,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1506</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2139,10 +2134,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>512627.2666092364</v>
+        <v>513012.6983090897</v>
       </c>
       <c r="R14" t="n">
-        <v>7128800.478737243</v>
+        <v>7128364.654042409</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2216,10 +2211,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>105311365</v>
+        <v>105310243</v>
       </c>
       <c r="B15" t="n">
-        <v>78602</v>
+        <v>96334</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2228,25 +2223,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2256,10 +2251,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>512855.9436202705</v>
+        <v>513032.9411713075</v>
       </c>
       <c r="R15" t="n">
-        <v>7128716.724151201</v>
+        <v>7128412.091036941</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2312,6 +2307,11 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Flera blommande exemplar</t>
+        </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>

--- a/artfynd/A 56894-2022.xlsx
+++ b/artfynd/A 56894-2022.xlsx
@@ -919,10 +919,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>105311364</v>
+        <v>105310242</v>
       </c>
       <c r="B4" t="n">
-        <v>78503</v>
+        <v>96334</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -931,25 +931,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6456</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -959,10 +959,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>512854.1876451217</v>
+        <v>513019.9398603113</v>
       </c>
       <c r="R4" t="n">
-        <v>7128720.626146523</v>
+        <v>7128503.69582489</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1015,6 +1015,11 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Flera blommande exemplar</t>
+        </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
@@ -1036,10 +1041,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>105314846</v>
+        <v>105311367</v>
       </c>
       <c r="B5" t="n">
-        <v>89392</v>
+        <v>78570</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1052,34 +1057,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>2081</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Bäckmyrtjärnen, Jmt</t>
+          <t>Långtjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>512630.3144845931</v>
+        <v>513094.1039140822</v>
       </c>
       <c r="R5" t="n">
-        <v>7128799.622523488</v>
+        <v>7128246.834694283</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1153,10 +1158,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>105310241</v>
+        <v>105311370</v>
       </c>
       <c r="B6" t="n">
-        <v>96334</v>
+        <v>78603</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1165,25 +1170,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>6464</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1193,10 +1198,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>512790.5225326184</v>
+        <v>513014.487555024</v>
       </c>
       <c r="R6" t="n">
-        <v>7128760.757088812</v>
+        <v>7128455.888390962</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1270,10 +1275,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>105314845</v>
+        <v>105311364</v>
       </c>
       <c r="B7" t="n">
-        <v>89742</v>
+        <v>78503</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1282,25 +1287,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1506</v>
+        <v>6456</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1310,10 +1315,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>512627.2666092364</v>
+        <v>512854.1876451217</v>
       </c>
       <c r="R7" t="n">
-        <v>7128800.478737243</v>
+        <v>7128720.626146523</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1387,10 +1392,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>105311365</v>
+        <v>105311369</v>
       </c>
       <c r="B8" t="n">
-        <v>78602</v>
+        <v>78569</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1399,25 +1404,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1427,10 +1432,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>512855.9436202705</v>
+        <v>513013.1845397085</v>
       </c>
       <c r="R8" t="n">
-        <v>7128716.724151201</v>
+        <v>7128455.448477038</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1504,10 +1509,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>105310242</v>
+        <v>105314846</v>
       </c>
       <c r="B9" t="n">
-        <v>96334</v>
+        <v>89392</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1516,25 +1521,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1544,10 +1549,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>513019.9398603113</v>
+        <v>512630.3144845931</v>
       </c>
       <c r="R9" t="n">
-        <v>7128503.69582489</v>
+        <v>7128799.622523488</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1600,11 +1605,6 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Flera blommande exemplar</t>
-        </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
@@ -1626,10 +1626,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>105311367</v>
+        <v>105311366</v>
       </c>
       <c r="B10" t="n">
-        <v>78570</v>
+        <v>78596</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1638,25 +1638,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>513094.1039140822</v>
+        <v>513091.9456367719</v>
       </c>
       <c r="R10" t="n">
-        <v>7128246.834694283</v>
+        <v>7128242.915587997</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1743,10 +1743,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>105311370</v>
+        <v>105310244</v>
       </c>
       <c r="B11" t="n">
-        <v>78603</v>
+        <v>96334</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1755,25 +1755,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6464</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>513014.487555024</v>
+        <v>513012.6983090897</v>
       </c>
       <c r="R11" t="n">
-        <v>7128455.888390962</v>
+        <v>7128364.654042409</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>105311369</v>
+        <v>105310243</v>
       </c>
       <c r="B12" t="n">
-        <v>78569</v>
+        <v>96334</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1872,25 +1872,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>513013.1845397085</v>
+        <v>513032.9411713075</v>
       </c>
       <c r="R12" t="n">
-        <v>7128455.448477038</v>
+        <v>7128412.091036941</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1956,6 +1956,11 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Flera blommande exemplar</t>
+        </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
@@ -1977,10 +1982,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>105311366</v>
+        <v>105310241</v>
       </c>
       <c r="B13" t="n">
-        <v>78596</v>
+        <v>96334</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1989,38 +1994,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Långtjärnen, Jmt</t>
+          <t>Bäckmyrtjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>513091.9456367719</v>
+        <v>512790.5225326184</v>
       </c>
       <c r="R13" t="n">
-        <v>7128242.915587997</v>
+        <v>7128760.757088812</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2094,10 +2099,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>105310244</v>
+        <v>105314845</v>
       </c>
       <c r="B14" t="n">
-        <v>96334</v>
+        <v>89742</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2110,21 +2115,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>1506</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2134,10 +2139,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>513012.6983090897</v>
+        <v>512627.2666092364</v>
       </c>
       <c r="R14" t="n">
-        <v>7128364.654042409</v>
+        <v>7128800.478737243</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2211,10 +2216,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>105310243</v>
+        <v>105311365</v>
       </c>
       <c r="B15" t="n">
-        <v>96334</v>
+        <v>78602</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2223,25 +2228,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2251,10 +2256,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>513032.9411713075</v>
+        <v>512855.9436202705</v>
       </c>
       <c r="R15" t="n">
-        <v>7128412.091036941</v>
+        <v>7128716.724151201</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2307,11 +2312,6 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Flera blommande exemplar</t>
-        </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
